--- a/data/sales_2026_01_27.xlsx
+++ b/data/sales_2026_01_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prafull Wahatule\Desktop\sales_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875060D-6E83-4FF0-B9AB-64535FA17F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B9C9A-17FF-4485-991E-9458610A3A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{84E07BB8-02B6-4F3E-A86B-E99D1D79451C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>OrderID</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>Tablet</t>
+  </si>
+  <si>
+    <t>Smart Watch</t>
+  </si>
+  <si>
+    <t>Wireless Mouse</t>
+  </si>
+  <si>
+    <t>Filing Cabinet</t>
+  </si>
+  <si>
+    <t>Marker Set</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Sticky Notes</t>
+  </si>
+  <si>
+    <t>HDMI Cable</t>
+  </si>
+  <si>
+    <t>Coffee Table</t>
+  </si>
+  <si>
+    <t>External HDD</t>
   </si>
 </sst>
 </file>
@@ -152,14 +182,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,340 +507,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8E124-6B58-40B8-8923-AC2E3F45F788}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1001</v>
       </c>
-      <c r="B2" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1002</v>
       </c>
-      <c r="B3" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>1003</v>
       </c>
-      <c r="B4" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>1004</v>
       </c>
-      <c r="B5" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>1005</v>
       </c>
-      <c r="B6" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>1006</v>
       </c>
-      <c r="B7" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>1007</v>
       </c>
-      <c r="B8" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>1008</v>
       </c>
-      <c r="B9" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>1009</v>
       </c>
-      <c r="B10" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>1010</v>
       </c>
-      <c r="B11" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>1011</v>
       </c>
-      <c r="B12" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>1012</v>
       </c>
-      <c r="B13" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>1013</v>
       </c>
-      <c r="B14" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>1014</v>
       </c>
-      <c r="B15" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>1015</v>
       </c>
-      <c r="B16" s="4">
-        <v>46049</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>30000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1025</v>
+      </c>
+      <c r="B26" s="2">
+        <v>46049</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
